--- a/Ac_Results_Final.xlsx
+++ b/Ac_Results_Final.xlsx
@@ -506,7 +506,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>500000</v>
@@ -515,7 +515,7 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>6</v>
@@ -563,7 +563,7 @@
         <v>300000</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -653,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>6.8</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>0.553921568627451</v>
+        <v>0.3645833333333334</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -746,21 +746,19 @@
       <c r="F7" t="n">
         <v>8</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Case 1</t>
+          <t>Case 2</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -798,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -976,14 +974,12 @@
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>30000</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1019,24 +1015,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" t="n">
         <v>100</v>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
       <c r="I13" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Case 2</t>
+          <t>Case 1</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1065,7 +1063,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
         <v>7</v>
@@ -1077,7 +1075,7 @@
         <v>10000</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1160,16 +1158,16 @@
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>2000000000</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>

--- a/Ac_Results_Final.xlsx
+++ b/Ac_Results_Final.xlsx
@@ -506,7 +506,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
         <v>500000</v>
@@ -515,7 +515,7 @@
         <v>500000</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>6</v>
@@ -563,7 +563,7 @@
         <v>300000</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -792,21 +792,19 @@
       <c r="F8" t="n">
         <v>8</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Case 1</t>
+          <t>Case 2</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -835,7 +833,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>7</v>
@@ -843,7 +841,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -882,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
         <v>20</v>
@@ -891,7 +889,7 @@
         <v>20</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -930,12 +928,12 @@
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -974,19 +972,23 @@
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>30000</v>
+      </c>
       <c r="I12" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Case 2</t>
+          <t>Case 1</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1015,26 +1017,24 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>100</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>12000</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Case 1</t>
+          <t>Case 2</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1066,23 +1066,19 @@
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
-      </c>
-      <c r="G14" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H14" t="n">
-        <v>10000</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Case 1</t>
+          <t>Case 2</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1116,17 +1112,21 @@
       <c r="F15" t="n">
         <v>8</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
       <c r="I15" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Case 2</t>
+          <t>Case 1</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1163,18 +1163,16 @@
       <c r="G16" t="n">
         <v>2000000000</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Case 1</t>
+          <t>Case 2</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1209,13 +1207,13 @@
         <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H17" t="n">
         <v>50</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
